--- a/Team-Data/2014-15/1-3-2014-15.xlsx
+++ b/Team-Data/2014-15/1-3-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,61 +733,61 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.758</v>
+        <v>0.75</v>
       </c>
       <c r="H2" t="n">
         <v>48.3</v>
       </c>
       <c r="I2" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J2" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L2" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="N2" t="n">
         <v>0.369</v>
       </c>
       <c r="O2" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="P2" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.776</v>
+        <v>0.778</v>
       </c>
       <c r="R2" t="n">
         <v>8.5</v>
       </c>
       <c r="S2" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T2" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="U2" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="V2" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W2" t="n">
         <v>8.6</v>
@@ -729,34 +796,34 @@
         <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="AA2" t="n">
         <v>21.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.4</v>
+        <v>102</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>3</v>
       </c>
       <c r="AF2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG2" t="n">
         <v>3</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>14</v>
@@ -774,22 +841,22 @@
         <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>24</v>
@@ -798,25 +865,25 @@
         <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -848,97 +915,97 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.355</v>
+        <v>0.367</v>
       </c>
       <c r="H3" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="J3" t="n">
-        <v>88.09999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="K3" t="n">
         <v>0.459</v>
       </c>
       <c r="L3" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="N3" t="n">
         <v>0.323</v>
       </c>
       <c r="O3" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="P3" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R3" t="n">
         <v>10.4</v>
       </c>
       <c r="S3" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T3" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U3" t="n">
         <v>25.6</v>
       </c>
       <c r="V3" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
         <v>4.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AB3" t="n">
         <v>103.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>3</v>
@@ -947,40 +1014,40 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN3" t="n">
         <v>27</v>
       </c>
       <c r="AO3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
       </c>
       <c r="AS3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>8</v>
@@ -989,7 +1056,7 @@
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-1.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>22</v>
@@ -1129,19 +1196,19 @@
         <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO4" t="n">
         <v>21</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>22</v>
       </c>
       <c r="AP4" t="n">
         <v>20</v>
@@ -1153,16 +1220,16 @@
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU4" t="n">
         <v>17</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW4" t="n">
         <v>20</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -1212,94 +1279,94 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
         <v>24</v>
       </c>
       <c r="G5" t="n">
-        <v>0.314</v>
+        <v>0.294</v>
       </c>
       <c r="H5" t="n">
         <v>48.9</v>
       </c>
       <c r="I5" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J5" t="n">
-        <v>84.90000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.312</v>
+        <v>0.313</v>
       </c>
       <c r="O5" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="P5" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="Q5" t="n">
         <v>0.738</v>
       </c>
       <c r="R5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S5" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T5" t="n">
-        <v>42.7</v>
+        <v>42.4</v>
       </c>
       <c r="U5" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V5" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="W5" t="n">
         <v>5.7</v>
       </c>
       <c r="X5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y5" t="n">
         <v>5</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA5" t="n">
         <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.7</v>
+        <v>-5.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF5" t="n">
         <v>27</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
@@ -1308,7 +1375,7 @@
         <v>25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
         <v>28</v>
@@ -1323,43 +1390,43 @@
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
         <v>2</v>
       </c>
       <c r="AW5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB5" t="n">
         <v>25</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -1394,115 +1461,115 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>0.706</v>
+        <v>0.697</v>
       </c>
       <c r="H6" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J6" t="n">
-        <v>82.2</v>
+        <v>81.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.448</v>
+        <v>0.451</v>
       </c>
       <c r="L6" t="n">
         <v>7.6</v>
       </c>
       <c r="M6" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.361</v>
+        <v>0.367</v>
       </c>
       <c r="O6" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="P6" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.777</v>
+        <v>0.78</v>
       </c>
       <c r="R6" t="n">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="S6" t="n">
         <v>34.2</v>
       </c>
       <c r="T6" t="n">
-        <v>46</v>
+        <v>45.6</v>
       </c>
       <c r="U6" t="n">
         <v>21.8</v>
       </c>
       <c r="V6" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y6" t="n">
         <v>5.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.8</v>
+        <v>102.6</v>
       </c>
       <c r="AC6" t="n">
         <v>4.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG6" t="n">
         <v>7</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK6" t="n">
         <v>19</v>
       </c>
-      <c r="AK6" t="n">
-        <v>20</v>
-      </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1514,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
         <v>4</v>
@@ -1538,7 +1605,7 @@
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA6" t="n">
         <v>2</v>
@@ -1547,7 +1614,7 @@
         <v>9</v>
       </c>
       <c r="BC6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1681,7 +1748,7 @@
         <v>11</v>
       </c>
       <c r="AM7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN7" t="n">
         <v>18</v>
@@ -1690,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="AP7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
         <v>12</v>
@@ -1705,7 +1772,7 @@
         <v>23</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -1758,34 +1825,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
         <v>24</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.727</v>
+        <v>0.706</v>
       </c>
       <c r="H8" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="J8" t="n">
-        <v>86.5</v>
+        <v>86.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L8" t="n">
         <v>9.6</v>
       </c>
       <c r="M8" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="N8" t="n">
         <v>0.359</v>
@@ -1794,22 +1861,22 @@
         <v>17.9</v>
       </c>
       <c r="P8" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R8" t="n">
         <v>11.1</v>
       </c>
       <c r="S8" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="T8" t="n">
-        <v>42.4</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V8" t="n">
         <v>12.3</v>
@@ -1827,28 +1894,28 @@
         <v>20.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.2</v>
+        <v>109.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1866,16 +1933,16 @@
         <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>14</v>
@@ -1884,7 +1951,7 @@
         <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1893,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX8" t="n">
         <v>9</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -1940,55 +2007,55 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
         <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>0.412</v>
+        <v>0.394</v>
       </c>
       <c r="H9" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I9" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J9" t="n">
-        <v>86.90000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.432</v>
+        <v>0.429</v>
       </c>
       <c r="L9" t="n">
         <v>7.7</v>
       </c>
       <c r="M9" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.32</v>
+        <v>0.317</v>
       </c>
       <c r="O9" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.743</v>
+        <v>0.74</v>
       </c>
       <c r="R9" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S9" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="T9" t="n">
-        <v>46.2</v>
+        <v>46.1</v>
       </c>
       <c r="U9" t="n">
         <v>20.8</v>
@@ -2000,97 +2067,97 @@
         <v>6.9</v>
       </c>
       <c r="X9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="AA9" t="n">
         <v>21.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>12</v>
       </c>
       <c r="AM9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN9" t="n">
         <v>28</v>
       </c>
       <c r="AO9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP9" t="n">
         <v>5</v>
       </c>
-      <c r="AP9" t="n">
-        <v>4</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV9" t="n">
         <v>19</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC9" t="n">
         <v>21</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -2200,25 +2267,25 @@
         <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>27</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
         <v>27</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI10" t="n">
         <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -2227,7 +2294,7 @@
         <v>9</v>
       </c>
       <c r="AM10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2400,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2415,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -2501,40 +2568,40 @@
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>35.8</v>
+        <v>35.4</v>
       </c>
       <c r="J12" t="n">
-        <v>83</v>
+        <v>82.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.431</v>
+        <v>0.429</v>
       </c>
       <c r="L12" t="n">
         <v>11.7</v>
       </c>
       <c r="M12" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="N12" t="n">
         <v>0.343</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.7</v>
+        <v>25.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.707</v>
+        <v>0.705</v>
       </c>
       <c r="R12" t="n">
         <v>12.3</v>
       </c>
       <c r="S12" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T12" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U12" t="n">
         <v>20.1</v>
@@ -2543,46 +2610,46 @@
         <v>17.4</v>
       </c>
       <c r="W12" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y12" t="n">
         <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.8</v>
+        <v>23.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
         <v>8</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI12" t="n">
         <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
@@ -2597,10 +2664,10 @@
         <v>19</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2609,13 +2676,13 @@
         <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT12" t="n">
         <v>9</v>
       </c>
       <c r="AU12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,16 +2691,16 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BB12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>-1.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
         <v>22</v>
@@ -2767,10 +2834,10 @@
         <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>19</v>
@@ -2779,7 +2846,7 @@
         <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AP13" t="n">
         <v>26</v>
@@ -2800,10 +2867,10 @@
         <v>20</v>
       </c>
       <c r="AV13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX13" t="n">
         <v>17</v>
@@ -2815,7 +2882,7 @@
         <v>18</v>
       </c>
       <c r="BA13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -2850,37 +2917,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="n">
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.676</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="J14" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.471</v>
       </c>
       <c r="L14" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="M14" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.388</v>
+        <v>0.387</v>
       </c>
       <c r="O14" t="n">
         <v>18.8</v>
@@ -2889,7 +2956,7 @@
         <v>24.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R14" t="n">
         <v>8.699999999999999</v>
@@ -2901,46 +2968,46 @@
         <v>40.9</v>
       </c>
       <c r="U14" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="V14" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="W14" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y14" t="n">
         <v>3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.5</v>
+        <v>105.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>10</v>
@@ -2949,10 +3016,10 @@
         <v>21</v>
       </c>
       <c r="AK14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL14" t="n">
         <v>3</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>2</v>
       </c>
       <c r="AM14" t="n">
         <v>5</v>
@@ -2961,34 +3028,34 @@
         <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ14" t="n">
         <v>16</v>
       </c>
       <c r="AR14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT14" t="n">
         <v>27</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>25</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -3032,106 +3099,106 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>0.313</v>
+        <v>0.303</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>38.7</v>
+        <v>38.3</v>
       </c>
       <c r="J15" t="n">
-        <v>87.09999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.444</v>
+        <v>0.441</v>
       </c>
       <c r="L15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="M15" t="n">
-        <v>20.3</v>
+        <v>19.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="O15" t="n">
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
       <c r="P15" t="n">
-        <v>24.8</v>
+        <v>25.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="T15" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U15" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
         <v>12.5</v>
       </c>
       <c r="W15" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>103.1</v>
+        <v>102.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6</v>
+        <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK15" t="n">
         <v>23</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>16</v>
@@ -3140,16 +3207,16 @@
         <v>21</v>
       </c>
       <c r="AN15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>6</v>
@@ -3158,13 +3225,13 @@
         <v>23</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
         <v>16</v>
       </c>
       <c r="AV15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW15" t="n">
         <v>14</v>
@@ -3176,10 +3243,10 @@
         <v>7</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BB15" t="n">
         <v>8</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -3214,94 +3281,94 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
         <v>24</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.727</v>
+        <v>0.75</v>
       </c>
       <c r="H16" t="n">
         <v>49.1</v>
       </c>
       <c r="I16" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J16" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M16" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.354</v>
+        <v>0.36</v>
       </c>
       <c r="O16" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="P16" t="n">
-        <v>23.8</v>
+        <v>24.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.776</v>
+        <v>0.778</v>
       </c>
       <c r="R16" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S16" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T16" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U16" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V16" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z16" t="n">
         <v>19.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>101.8</v>
+        <v>102.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH16" t="n">
         <v>2</v>
@@ -3322,52 +3389,52 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>21</v>
       </c>
       <c r="AS16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" t="n">
-        <v>0.412</v>
+        <v>0.424</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J17" t="n">
-        <v>74.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.464</v>
       </c>
       <c r="L17" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M17" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.355</v>
+        <v>0.358</v>
       </c>
       <c r="O17" t="n">
         <v>17.9</v>
@@ -3435,13 +3502,13 @@
         <v>24.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.73</v>
+        <v>0.734</v>
       </c>
       <c r="R17" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="T17" t="n">
         <v>35.9</v>
@@ -3450,40 +3517,40 @@
         <v>19.8</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X17" t="n">
         <v>3.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.2</v>
+        <v>94.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-4.4</v>
+        <v>-3.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>29</v>
@@ -3498,16 +3565,16 @@
         <v>8</v>
       </c>
       <c r="AL17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
         <v>16</v>
       </c>
       <c r="AN17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3525,10 +3592,10 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW17" t="n">
         <v>7</v>
@@ -3537,19 +3604,19 @@
         <v>30</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ17" t="n">
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
         <v>27</v>
       </c>
       <c r="BC17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3665,16 +3732,16 @@
         <v>16</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI18" t="n">
         <v>13</v>
       </c>
       <c r="AJ18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK18" t="n">
         <v>9</v>
@@ -3686,7 +3753,7 @@
         <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3695,7 +3762,7 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
         <v>22</v>
@@ -3704,10 +3771,10 @@
         <v>22</v>
       </c>
       <c r="AT18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="n">
         <v>28</v>
@@ -3719,7 +3786,7 @@
         <v>20</v>
       </c>
       <c r="AY18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -3760,85 +3827,85 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>0.156</v>
+        <v>0.161</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J19" t="n">
         <v>85.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M19" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="N19" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O19" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P19" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="R19" t="n">
         <v>12.5</v>
       </c>
       <c r="S19" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T19" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U19" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="V19" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X19" t="n">
         <v>4.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC19" t="n">
         <v>-10.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3868,16 +3935,16 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3886,13 +3953,13 @@
         <v>29</v>
       </c>
       <c r="AT19" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AU19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>4</v>
@@ -3901,10 +3968,10 @@
         <v>21</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA19" t="n">
         <v>4</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -3942,88 +4009,88 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.515</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J20" t="n">
-        <v>84.90000000000001</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.766</v>
+        <v>0.754</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="U20" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V20" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
         <v>19.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AB20" t="n">
         <v>101.9</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
@@ -4032,16 +4099,16 @@
         <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
         <v>7</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4050,49 +4117,49 @@
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO20" t="n">
         <v>18</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AQ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT20" t="n">
         <v>11</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>12</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>15</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC20" t="n">
         <v>15</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -4220,13 +4287,13 @@
         <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL21" t="n">
         <v>23</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>24</v>
       </c>
       <c r="AM21" t="n">
         <v>22</v>
@@ -4256,7 +4323,7 @@
         <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW21" t="n">
         <v>19</v>
@@ -4265,13 +4332,13 @@
         <v>28</v>
       </c>
       <c r="AY21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ21" t="n">
         <v>24</v>
       </c>
       <c r="BA21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>14</v>
@@ -4393,7 +4460,7 @@
         <v>16</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
         <v>17</v>
@@ -4411,7 +4478,7 @@
         <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN22" t="n">
         <v>26</v>
@@ -4420,10 +4487,10 @@
         <v>10</v>
       </c>
       <c r="AP22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR22" t="n">
         <v>5</v>
@@ -4435,7 +4502,7 @@
         <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV22" t="n">
         <v>24</v>
@@ -4444,16 +4511,16 @@
         <v>24</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4573,7 @@
         <v>36.8</v>
       </c>
       <c r="J23" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K23" t="n">
         <v>0.456</v>
@@ -4515,67 +4582,67 @@
         <v>7.2</v>
       </c>
       <c r="M23" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.374</v>
+        <v>0.378</v>
       </c>
       <c r="O23" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="P23" t="n">
         <v>18.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.724</v>
+        <v>0.718</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="U23" t="n">
         <v>19.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA23" t="n">
         <v>18.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.1</v>
+        <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
@@ -4596,7 +4663,7 @@
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4605,13 +4672,13 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4620,19 +4687,19 @@
         <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX23" t="n">
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>0.125</v>
+        <v>0.129</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,7 +4755,7 @@
         <v>33.4</v>
       </c>
       <c r="J24" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K24" t="n">
         <v>0.411</v>
@@ -4697,10 +4764,10 @@
         <v>7.1</v>
       </c>
       <c r="M24" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.297</v>
+        <v>0.295</v>
       </c>
       <c r="O24" t="n">
         <v>16.9</v>
@@ -4709,46 +4776,46 @@
         <v>25.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.673</v>
+        <v>0.672</v>
       </c>
       <c r="R24" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="S24" t="n">
         <v>30.4</v>
       </c>
       <c r="T24" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U24" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V24" t="n">
         <v>19.1</v>
       </c>
       <c r="W24" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="X24" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB24" t="n">
         <v>90.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>-13.6</v>
+        <v>-12.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4784,7 +4851,7 @@
         <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4796,10 +4863,10 @@
         <v>26</v>
       </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ24" t="n">
         <v>20</v>
       </c>
       <c r="BA24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -4942,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
@@ -4954,19 +5021,19 @@
         <v>11</v>
       </c>
       <c r="AL25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM25" t="n">
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
         <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -4978,13 +5045,13 @@
         <v>20</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
         <v>19</v>
       </c>
       <c r="AV25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW25" t="n">
         <v>9</v>
@@ -4999,7 +5066,7 @@
         <v>27</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" t="n">
         <v>26</v>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>0.765</v>
+        <v>0.788</v>
       </c>
       <c r="H26" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I26" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J26" t="n">
-        <v>86.90000000000001</v>
+        <v>86.7</v>
       </c>
       <c r="K26" t="n">
         <v>0.453</v>
       </c>
       <c r="L26" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="M26" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="O26" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="P26" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.789</v>
+        <v>0.788</v>
       </c>
       <c r="R26" t="n">
         <v>11.4</v>
       </c>
       <c r="S26" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="T26" t="n">
-        <v>46.7</v>
+        <v>46.8</v>
       </c>
       <c r="U26" t="n">
         <v>23</v>
       </c>
       <c r="V26" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W26" t="n">
         <v>6.7</v>
@@ -5100,19 +5167,19 @@
         <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5124,16 +5191,16 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI26" t="n">
         <v>6</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
         <v>4</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
         <v>26</v>
@@ -5154,7 +5221,7 @@
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5166,7 +5233,7 @@
         <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW26" t="n">
         <v>25</v>
@@ -5175,10 +5242,10 @@
         <v>8</v>
       </c>
       <c r="AY26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA26" t="n">
         <v>25</v>
@@ -5187,7 +5254,7 @@
         <v>6</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>18</v>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5357,7 +5424,7 @@
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -5413,31 +5480,31 @@
         <v>49.3</v>
       </c>
       <c r="I28" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="J28" t="n">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.366</v>
+        <v>0.373</v>
       </c>
       <c r="O28" t="n">
         <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.759</v>
+        <v>0.764</v>
       </c>
       <c r="R28" t="n">
         <v>9.800000000000001</v>
@@ -5449,10 +5516,10 @@
         <v>44.1</v>
       </c>
       <c r="U28" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="W28" t="n">
         <v>7.4</v>
@@ -5461,22 +5528,22 @@
         <v>5.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB28" t="n">
         <v>102.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5491,10 +5558,10 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>6</v>
@@ -5503,22 +5570,22 @@
         <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO28" t="n">
         <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS28" t="n">
         <v>3</v>
@@ -5530,22 +5597,22 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AW28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
         <v>12</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -5658,25 +5725,25 @@
         <v>7.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
         <v>10</v>
@@ -5694,7 +5761,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ29" t="n">
         <v>3</v>
@@ -5715,16 +5782,16 @@
         <v>1</v>
       </c>
       <c r="AW29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY29" t="n">
         <v>23</v>
       </c>
       <c r="AZ29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
@@ -5733,7 +5800,7 @@
         <v>3</v>
       </c>
       <c r="BC29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -5762,58 +5829,58 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" t="n">
         <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.353</v>
+        <v>0.333</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J30" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="L30" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M30" t="n">
         <v>20.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.339</v>
+        <v>0.333</v>
       </c>
       <c r="O30" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P30" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R30" t="n">
         <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T30" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U30" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V30" t="n">
         <v>14.7</v>
@@ -5822,25 +5889,25 @@
         <v>6.2</v>
       </c>
       <c r="X30" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y30" t="n">
         <v>4.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB30" t="n">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-3.4</v>
+        <v>-3.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
@@ -5861,25 +5928,25 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
         <v>20</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
         <v>14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5888,19 +5955,19 @@
         <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY30" t="n">
         <v>11</v>
@@ -5915,7 +5982,7 @@
         <v>23</v>
       </c>
       <c r="BC30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" t="n">
         <v>22</v>
       </c>
       <c r="F31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>0.667</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5962,7 +6029,7 @@
         <v>39</v>
       </c>
       <c r="J31" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K31" t="n">
         <v>0.471</v>
@@ -5971,79 +6038,79 @@
         <v>6.2</v>
       </c>
       <c r="M31" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.393</v>
+        <v>0.396</v>
       </c>
       <c r="O31" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="P31" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.737</v>
+        <v>0.739</v>
       </c>
       <c r="R31" t="n">
         <v>10.5</v>
       </c>
       <c r="S31" t="n">
-        <v>32.3</v>
+        <v>32.7</v>
       </c>
       <c r="T31" t="n">
-        <v>42.8</v>
+        <v>43.2</v>
       </c>
       <c r="U31" t="n">
         <v>24.9</v>
       </c>
       <c r="V31" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W31" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X31" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y31" t="n">
         <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF31" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH31" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI31" t="n">
         <v>8</v>
       </c>
       <c r="AJ31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6058,16 +6125,16 @@
         <v>24</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
         <v>19</v>
       </c>
       <c r="AS31" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AT31" t="n">
         <v>13</v>
@@ -6076,19 +6143,19 @@
         <v>4</v>
       </c>
       <c r="AV31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX31" t="n">
         <v>14</v>
       </c>
-      <c r="AW31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>11</v>
-      </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-3-2014-15</t>
+          <t>2015-01-03</t>
         </is>
       </c>
     </row>
